--- a/feature_sorting/ss_results.xlsx
+++ b/feature_sorting/ss_results.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1934</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>1766</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>2041</v>
+        <v>0.1472031403336604</v>
       </c>
       <c r="E2">
-        <v>1637</v>
+        <v>0.06105006105006105</v>
       </c>
       <c r="F2">
-        <v>1816</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="G2">
-        <v>1455</v>
+        <v>0.1372683596431023</v>
       </c>
       <c r="H2">
-        <v>1959</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1897</v>
+        <v>0.1055408970976253</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>1825</v>
+        <v>0.2196595277320154</v>
       </c>
       <c r="G3">
-        <v>1389</v>
+        <v>4.928131416837783</v>
       </c>
       <c r="H3">
-        <v>1960</v>
+        <v>0.1021450459652707</v>
       </c>
       <c r="I3">
-        <v>1901</v>
+        <v>0.2637130801687764</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>1818</v>
+        <v>0.2195389681668496</v>
       </c>
       <c r="G4">
-        <v>1456</v>
+        <v>0.06863417982155114</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>1954</v>
+        <v>0.05120327700972863</v>
       </c>
       <c r="I5">
-        <v>1898</v>
+        <v>0.0526592943654555</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -548,28 +548,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -577,28 +577,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1924</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>1773</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>2039</v>
+        <v>0.09818360333824251</v>
       </c>
       <c r="E7">
-        <v>1642</v>
+        <v>0.1830384380719951</v>
       </c>
       <c r="F7">
-        <v>1814</v>
+        <v>0.4390779363336992</v>
       </c>
       <c r="G7">
-        <v>1478</v>
+        <v>1.371742112482853</v>
       </c>
       <c r="H7">
-        <v>1982</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <v>1906</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -606,28 +606,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>2040</v>
+        <v>0.1964636542239686</v>
       </c>
       <c r="E8">
-        <v>1642</v>
+        <v>0.1830384380719951</v>
       </c>
       <c r="F8">
-        <v>1814</v>
+        <v>0.4390779363336992</v>
       </c>
       <c r="G8">
-        <v>1478</v>
+        <v>1.510989010989011</v>
       </c>
       <c r="H8">
-        <v>1957</v>
+        <v>0.05112474437627813</v>
       </c>
       <c r="I8">
-        <v>1900</v>
+        <v>0.05260389268805891</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -635,28 +635,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1935</v>
+        <v>100</v>
       </c>
       <c r="C9">
-        <v>1778</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>2040</v>
+        <v>0.1472754050073638</v>
       </c>
       <c r="E9">
-        <v>1641</v>
+        <v>0.1217285453438831</v>
       </c>
       <c r="F9">
-        <v>1831</v>
+        <v>0.5491488193300385</v>
       </c>
       <c r="G9">
-        <v>1446</v>
+        <v>0.823045267489712</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -664,28 +664,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>2039</v>
+        <v>0.04906771344455348</v>
       </c>
       <c r="E10">
-        <v>1642</v>
+        <v>0.06086427267194157</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -693,28 +693,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1949</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>1765</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>2035</v>
+        <v>0.04911591355599214</v>
       </c>
       <c r="E11">
-        <v>1643</v>
+        <v>0.06090133982947624</v>
       </c>
       <c r="F11">
-        <v>1813</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G11">
-        <v>1468</v>
+        <v>1.241379310344828</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/feature_sorting/ss_results.xlsx
+++ b/feature_sorting/ss_results.xlsx
@@ -432,202 +432,106 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>-19</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.1472031403336604</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>0.06105006105006105</v>
+        <v>-3</v>
       </c>
       <c r="F2">
-        <v>0.4931506849315068</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>0.1372683596431023</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1055408970976253</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>0.2196595277320154</v>
-      </c>
-      <c r="G3">
-        <v>4.928131416837783</v>
-      </c>
       <c r="H3">
-        <v>0.1021450459652707</v>
+        <v>-2</v>
       </c>
       <c r="I3">
-        <v>0.2637130801687764</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>0.2195389681668496</v>
-      </c>
-      <c r="G4">
-        <v>0.06863417982155114</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>0.05120327700972863</v>
+        <v>-1</v>
       </c>
       <c r="I5">
-        <v>0.0526592943654555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>-13</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>-4</v>
       </c>
       <c r="D7">
-        <v>0.09818360333824251</v>
+        <v>-3</v>
       </c>
       <c r="E7">
-        <v>0.1830384380719951</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>0.4390779363336992</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>1.371742112482853</v>
+        <v>-20</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>-5</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>0.1964636542239686</v>
-      </c>
-      <c r="E8">
-        <v>0.1830384380719951</v>
-      </c>
       <c r="F8">
-        <v>0.4390779363336992</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>1.510989010989011</v>
-      </c>
-      <c r="H8">
-        <v>0.05112474437627813</v>
-      </c>
-      <c r="I8">
-        <v>0.05260389268805891</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -635,57 +539,39 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>-20</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>-7</v>
       </c>
       <c r="D9">
-        <v>0.1472754050073638</v>
+        <v>-2</v>
       </c>
       <c r="E9">
-        <v>0.1217285453438831</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5491488193300385</v>
+        <v>-10</v>
       </c>
       <c r="G9">
-        <v>0.823045267489712</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
       <c r="D10">
-        <v>0.04906771344455348</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0.06086427267194157</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -693,28 +579,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>-36</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04911591355599214</v>
+        <v>-3</v>
       </c>
       <c r="E11">
-        <v>0.06090133982947624</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3846153846153846</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>1.241379310344828</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
